--- a/pred_ohlcv/54_21/2019-10-31 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 PIVX ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-20230.53828512999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-32270.59798512999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-31694.00978512999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-31278.62068512999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-17626.32238512999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>7066.797818320005</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>7066.797818320005</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6149.195818320005</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6149.195818320005</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6151.184818320005</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 PIVX ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-25957.38708512999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-22196.42858512999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-25334.48468513</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-25324.48468513</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-20230.53828512999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-20231.53828512999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-24647.23758512999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-24647.23758512999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-32270.59798512999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-31694.00978512999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-31118.42178512999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-31278.62068512999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-17626.32238512999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3701.702481679995</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3801.795381679995</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1096.524018320005</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2003.117018320005</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1105.969018320005</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3728.806181679995</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>7066.797818320005</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6149.195818320005</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6149.195818320005</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6151.184818320005</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>5610.652818320004</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-7225.927081679996</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-33094.72478168</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-33213.72478168</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-32620.30758168</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-32619.30758168</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-38819.89448168</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-38939.89448168</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-38938.89448168</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-40112.82878168</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-40472.66748168</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-45783.67098168</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
